--- a/data/trans_camb/IP1012-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1012-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,21</t>
+          <t>-1,59; 1,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,57</t>
+          <t>-2,41; 0,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,49</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,93</t>
+          <t>-0,52; 1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,11</t>
+          <t>-1,14; 0,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-51,24%</t>
+          <t>-73,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>63,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-66,63%</t>
+          <t>-73,04%</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-85,9; 407,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,5; 290,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,05</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,7</t>
+          <t>-1,61; 1,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,17</t>
+          <t>-1,97; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,49</t>
+          <t>-0,83; 1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,31</t>
+          <t>-0,88; 0,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,08</t>
+          <t>-1,43; 0,11</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-73,04%</t>
+          <t>-51,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-73,04%</t>
+          <t>-66,63%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,9; 407,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,5; 290,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 85,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1012-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1012-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,61</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,66</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>102,79%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,7</t>
+          <t>-1,18; 1,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,17</t>
+          <t>-1,86; 0,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,49</t>
+          <t>-0,51; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,31</t>
+          <t>-0,67; 0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,08</t>
+          <t>-1,05; 0,16</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-73,04%</t>
+          <t>-68,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-73,04%</t>
+          <t>-73,7%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,21</t>
+          <t>-2,46; 0,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,57</t>
+          <t>-2,42; 0,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,49</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,93</t>
+          <t>-0,96; 1,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,11</t>
+          <t>-1,45; 0,16</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-56,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,24%</t>
+          <t>-64,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-66,63%</t>
+          <t>-65,93%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,9; 407,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,5; 290,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,05</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,85</t>
+          <t>-1,88; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,17</t>
+          <t>-2,0; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,85</t>
+          <t>-1,08; 2,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; -0,09</t>
+          <t>-2,16; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,6</t>
+          <t>-1,19; 1,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; -0,0</t>
+          <t>-1,64; 0,45</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,34%</t>
+          <t>-26,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-65,58%</t>
+          <t>-54,77%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,0; 197,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-90,71; 59,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 186,79</t>
+          <t>-80,08; 320,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-91,69; 26,51</t>
+          <t>-100,0; 247,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 0,86</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 0,79</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; -0,09</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 0,55</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; -0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-53,34%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55,52%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-65,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-71,51; 231,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-90,6; 63,59</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-49,67; 188,86</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-92,21; 9,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1012-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1012-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 3,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,66</t>
+          <t>-1,23; 1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,25</t>
+          <t>-1,86; 0,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,87</t>
+          <t>-0,5; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,0</t>
+          <t>-1,26; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,95</t>
+          <t>-0,65; 0,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,16</t>
+          <t>-0,94; 0,14</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,41</t>
+          <t>-2,35; 0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,41</t>
+          <t>-2,41; 0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,1</t>
+          <t>-0,96; 0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,16</t>
+          <t>-1,44; 0,16</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,8</t>
+          <t>-2,0; 1,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,37</t>
+          <t>-2,13; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,26</t>
+          <t>-1,07; 2,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-2,78; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,34</t>
+          <t>-1,11; 1,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,45</t>
+          <t>-1,7; 0,36</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,08; 320,91</t>
+          <t>-79,36; 342,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 247,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1263,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,86</t>
+          <t>-0,72; 0,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,19</t>
+          <t>-1,13; 0,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,79</t>
+          <t>-0,34; 0,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,55</t>
+          <t>-0,37; 0,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; -0,01</t>
+          <t>-0,78; -0,04</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,51; 231,1</t>
+          <t>-67,53; 205,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,6; 63,59</t>
+          <t>-89,4; 90,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 188,86</t>
+          <t>-48,3; 199,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,21; 9,7</t>
+          <t>-91,71; 23,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1012-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1012-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,17 +601,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,03</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,39</t>
+          <t>-0,51; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,24</t>
+          <t>-1,27; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,87</t>
+          <t>-1,28; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,0</t>
+          <t>-1,87; 0,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,88</t>
+          <t>-0,72; 0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,14</t>
+          <t>-0,95; 0,15</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-3,74%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-68,61%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,51</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,4</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>-2,37; 0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 0,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,98</t>
+          <t>-0,76; 1,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,16</t>
+          <t>-1,56; 0,16</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-56,26%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-64,14%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-0,07</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,56</t>
+          <t>-1,0; 2,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,37</t>
+          <t>-2,21; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,51</t>
+          <t>-2,14; 1,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,0</t>
+          <t>-1,97; 1,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,37</t>
+          <t>-1,08; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,36</t>
+          <t>-1,61; 0,44</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>37,71%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-5,85%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-26,58%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>37,71%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,36; 342,15</t>
+          <t>-80,36; 366,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,02</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,42</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,22 +1263,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,83</t>
+          <t>-0,27; 0,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,23</t>
+          <t>-0,81; -0,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,76</t>
+          <t>-0,75; 0,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; -0,09</t>
+          <t>-1,15; 0,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; -0,04</t>
+          <t>-0,74; -0,0</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>55,52%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>2,99%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-53,34%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>55,52%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 205,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 90,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,0; 197,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,71; 59,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 199,63</t>
+          <t>-51,11; 186,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-91,71; 23,89</t>
+          <t>-91,69; 26,51</t>
         </is>
       </c>
     </row>
